--- a/trained_models_old_clean/MLP/whitewine_quality/results_table.xlsx
+++ b/trained_models_old_clean/MLP/whitewine_quality/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7455682327730924, 'beta_2': 0.6994113130413, 'epsilon': 0.6646454584360839, 'learning_rate': 'adaptive', 'momentum': 0.18219764492303292, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5440711336888929}</t>
+          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5414965986394558</v>
+        <v>0.454421768707483</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
+          <t>{'beta_1': 0.16388054667706958, 'beta_2': 0.46110686039660415, 'epsilon': 0.05164037856454271, 'learning_rate': 'adaptive', 'momentum': 0.05720755875071437, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6741662803737272}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.454421768707483</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4562309056652962, 'beta_2': 0.8239729079090322, 'epsilon': 0.6679372419381273, 'learning_rate': 'invscaling', 'momentum': 0.47314297846564424, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.733289134316726}</t>
+          <t>{'beta_1': 0.12789284958036584, 'beta_2': 0.5826096381595377, 'epsilon': 0.002062570938847292, 'learning_rate': 'invscaling', 'momentum': 0.4124335494348642, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8937727558492876}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.454421768707483</v>
+        <v>0.5292517006802722</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.08779999408310685, 'beta_2': 0.5663058066711946, 'epsilon': 0.2159058975503476, 'learning_rate': 'constant', 'momentum': 0.4729795376166688, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3259735572966217}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.536734693877551</v>
+        <v>0.5251700680272109</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6917796472506498, 'beta_2': 0.5660348527523685, 'epsilon': 0.26512410144850596, 'learning_rate': 'adaptive', 'momentum': 0.09394051075844168, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9292961975762141}</t>
+          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5292517006802722</v>
+        <v>0.5340136054421769</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.18678021333564818, 'beta_2': 0.6738733596115727, 'epsilon': 0.2767890965633854, 'learning_rate': 'constant', 'momentum': 0.04866731114905576, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8906310472988932}</t>
+          <t>{'beta_1': 0.5255702520521403, 'beta_2': 0.2130687220349326, 'epsilon': 0.49176890515605987, 'learning_rate': 'invscaling', 'momentum': 0.649064242840353, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5765630410282961}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5224489795918368</v>
       </c>
     </row>
     <row r="8">
@@ -720,7 +720,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8971896673718566, 'beta_2': 0.32115145792335104, 'epsilon': 0.4737106274513581, 'learning_rate': 'adaptive', 'momentum': 0.15274234220713012, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.17693548523244518}</t>
+          <t>{'beta_1': 0.9605927561922608, 'beta_2': 0.12141669440209722, 'epsilon': 0.09906428797137679, 'learning_rate': 'invscaling', 'momentum': 0.6224848742605995, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.603038139426371}</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.25788256259212416, 'beta_2': 0.6780159472597682, 'epsilon': 0.9366530275650521, 'learning_rate': 'invscaling', 'momentum': 0.4768013639288602, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.528741511699448}</t>
+          <t>{'beta_1': 0.5652792503232922, 'beta_2': 0.41981330293618097, 'epsilon': 0.7277454915754739, 'learning_rate': 'constant', 'momentum': 0.21878330983125793, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7178526672195303}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.5231292517006803</v>
+        <v>0.536734693877551</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6559484946101716, 'beta_2': 0.37346672868995284, 'epsilon': 0.7842813127380445, 'learning_rate': 'adaptive', 'momentum': 0.5082713750461963, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.44787809291973113}</t>
+          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5319727891156463</v>
+        <v>0.5326530612244897</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5958366322842731, 'beta_2': 0.11740811726073401, 'epsilon': 0.9749079845501148, 'learning_rate': 'adaptive', 'momentum': 0.3917969385646658, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2244669384017105}</t>
+          <t>{'beta_1': 0.9098145096079977, 'beta_2': 0.5030242919626197, 'epsilon': 0.6202207208800341, 'learning_rate': 'adaptive', 'momentum': 0.7063707974895619, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.03791166827812342}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.5217687074829932</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3912753413598011, 'beta_2': 0.9564371379722508, 'epsilon': 0.47734815263293473, 'learning_rate': 'invscaling', 'momentum': 0.9459202389602205, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8143851000802041}</t>
+          <t>{'beta_1': 0.23054316734460878, 'beta_2': 0.32559801588167764, 'epsilon': 0.7076519067695602, 'learning_rate': 'adaptive', 'momentum': 0.3709732519780914, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2795299433788142}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.527891156462585</v>
+        <v>0.5258503401360545</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5904743154531562, 'beta_2': 0.9207973478039624, 'epsilon': 0.8044585917235958, 'learning_rate': 'constant', 'momentum': 0.7119905766783191, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.49236140669088413}</t>
+          <t>{'beta_1': 0.8571206004221198, 'beta_2': 0.45285074832438077, 'epsilon': 0.43389557352322544, 'learning_rate': 'constant', 'momentum': 0.40746848288962145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9798641184223712}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5244897959183673</v>
+        <v>0.5319727891156463</v>
       </c>
     </row>
     <row r="14">
@@ -936,7 +936,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.034075793806106, 'beta_2': 0.6638365496169778, 'epsilon': 0.8668194881681545, 'learning_rate': 'constant', 'momentum': 0.8757651744100993, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.08029435501699689}</t>
+          <t>{'beta_1': 0.66957812472251, 'beta_2': 0.2207600533518455, 'epsilon': 0.3350163768849147, 'learning_rate': 'constant', 'momentum': 0.9666819873735142, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9328824379767133}</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5744866490705209, 'beta_2': 0.25651104863639224, 'epsilon': 0.23655324658624946, 'learning_rate': 'constant', 'momentum': 0.3296511575814126, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10816552447633765}</t>
+          <t>{'beta_1': 0.8296426288894153, 'beta_2': 0.07166958492821525, 'epsilon': 0.8527711995999567, 'learning_rate': 'constant', 'momentum': 0.45489035346577167, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.648998663262847}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.535374149659864</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7723104705008167, 'beta_2': 0.9577821821335364, 'epsilon': 0.11720315990442622, 'learning_rate': 'invscaling', 'momentum': 0.9364681001409744, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.05250816744440845}</t>
+          <t>{'beta_1': 0.3759651167322159, 'beta_2': 0.06171729066506716, 'epsilon': 0.38508415698973375, 'learning_rate': 'constant', 'momentum': 0.9881924181265406, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7921537410440993}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5312925170068027</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.318152772679051, 'beta_2': 0.8413259323375559, 'epsilon': 0.8579980526540874, 'learning_rate': 'constant', 'momentum': 0.566088448063145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30128918764272283}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.5312925170068027</v>
+        <v>0.5462585034013605</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6796898841407999, 'beta_2': 0.7392062958063914, 'epsilon': 0.9659889920187665, 'learning_rate': 'invscaling', 'momentum': 0.14297878261938546, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.667803445340725}</t>
+          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.5224489795918368</v>
+        <v>0.5292517006802722</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.27808502966658566, 'beta_2': 0.28966269009651957, 'epsilon': 0.006054472911401071, 'learning_rate': 'constant', 'momentum': 0.8459838734615371, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5871565138465034}</t>
+          <t>{'beta_1': 0.3558969243603615, 'beta_2': 0.7563726480312566, 'epsilon': 0.9853427339385873, 'learning_rate': 'invscaling', 'momentum': 0.9534053465033483, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.17012610063108624}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.5394557823129251</v>
+        <v>0.5326530612244897</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
+          <t>{'beta_1': 0.8971896673718566, 'beta_2': 0.32115145792335104, 'epsilon': 0.4737106274513581, 'learning_rate': 'adaptive', 'momentum': 0.15274234220713012, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.17693548523244518}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5251700680272109</v>
+        <v>0.5312925170068027</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
+          <t>{'beta_1': 0.8717780047919479, 'beta_2': 0.27326849278082016, 'epsilon': 0.7972487870786511, 'learning_rate': 'invscaling', 'momentum': 0.6798794564067695, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.48340861659875267}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
   </sheetData>
